--- a/Output_testing/R1_201907/Country/HKD/MN/TAIWAN_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/TAIWAN_201907_HKD_MN.xlsx
@@ -810,136 +810,435 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>24751.62209</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>33.21661151413323</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>25620.99518</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>28.66804502025709</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>26068.150375</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>30.25142041291311</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>18300.604207</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>36.79341283009524</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>25.12994621519218</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>7123.017752</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>9.55907102234117</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>7655.869025</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>8.56636505865389</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>7619.463235</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>8.842191805973879</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>5349.17852</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>10.75453746565133</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>34.50916389716725</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>3195.315486</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>4.288104948339401</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>4688.347379</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>5.245922447098962</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>5268.312375</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>6.113741490286985</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>3924.669888</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>7.890559119124259</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>24.71738781618815</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>2431.761941</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>3.263418106310122</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>2686.271333</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>3.005743803862268</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>3008.038824</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>3.490751962611722</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>1996.6257</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>4.01422121457489</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>19.76817199374463</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>2268.747267</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>3.044652844071057</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>2555.145919</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>2.859023926455388</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>2876.585953</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>3.338204274804952</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>1680.077918</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>3.377801067357999</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>4.372597963250158</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>1898.792294</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>2.548174246782379</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>1767.490113</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>1.9776939098719</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>2836.481202</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>3.291663739108959</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>1337.056383</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>2.688155370193507</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>-4.289308511884071</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>1887.36372</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>2.532837130639519</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>1893.308773</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>2.118475912441576</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>2041.253388</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>2.368822241753362</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>1336.283766</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>2.686602021685501</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>16.13089140992112</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>1612.190233</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>2.163555037391933</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>1664.718597</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>1.862699998558574</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>2080.814582</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>2.414731993481607</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>1235.260854</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>2.483495191743097</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>6.69527586491665</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>MUSICAL INSTRUMENTS AND PARTS AND ACCESSORIES THEREOF; RECORDS, TAPES AND OTHER SOUND OR SIMILAR RECORDINGS (EXCLUDING GOODS OF GROUPS 763 AND 883)</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>1695.358421</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>2.275166526169733</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>2657.509207</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>2.973561060090864</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>2105.092224</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>2.442905574814041</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>1153.967518</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>2.320054726174231</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>-7.434147665383706</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>012</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>OTHER MEAT AND EDIBLE MEAT OFFAL, FRESH, CHILLED OR FROZEN (EXCEPT MEAT AND MEAT OFFAL UNFIT FOR HUMAN CONSUMPTION)</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>7075.72561</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>9.495605092602373</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>17093.162084</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>19.12601507942923</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>10129.847135</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>11.75542798361766</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>925.129323</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>1.859974934015878</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>-90.42878864473029</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>20575.90003</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>27.61280353121908</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>21088.449813</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>23.59645378328026</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>22137.618167</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>25.69013852063372</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>12499.951865</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>25.13118605938407</v>
+      </c>
+      <c r="K28" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1270,443 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>405.805724</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>22.03485375895112</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>312.314701</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>15.02181478000712</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>440.172634</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>17.83091045919451</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>255.443423</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>21.09209376845198</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>36.64111174049482</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>FERROUS WASTE AND SCRAP; REMELTING INGOTS OF IRON OR STEEL</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v>250.780739</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>13.61714875521738</v>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>305.715403</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>14.70439958335882</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>479.080627</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>19.40703056694743</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>233.008719</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>19.23964881262524</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>-14.20601075971012</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>NON-FERROUS BASE METAL WASTE AND SCRAP, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="n">
+        <v>136.790623</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>7.427596988259374</v>
+      </c>
+      <c r="E33" s="8" t="n">
+        <v>154.287566</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>7.420973882718779</v>
+      </c>
+      <c r="G33" s="8" t="n">
+        <v>277.395865</v>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>11.23700214076872</v>
+      </c>
+      <c r="I33" s="8" t="n">
+        <v>110.674689</v>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>9.138465538735991</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>-27.48179312845485</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="n">
+        <v>173.415572</v>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>9.416295883852191</v>
+      </c>
+      <c r="E34" s="8" t="n">
+        <v>89.435598</v>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>4.301702685123284</v>
+      </c>
+      <c r="G34" s="8" t="n">
+        <v>186.977147</v>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>7.574239079280537</v>
+      </c>
+      <c r="I34" s="8" t="n">
+        <v>77.06673499999999</v>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>6.36343962963744</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>-34.95636663412773</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>TOBACCO, MANUFACTURED</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="n">
+        <v>55.652903</v>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>3.021898180189523</v>
+      </c>
+      <c r="E35" s="8" t="n">
+        <v>82.54297800000001</v>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>3.970179190848281</v>
+      </c>
+      <c r="G35" s="8" t="n">
+        <v>119.299219</v>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>4.832680470183059</v>
+      </c>
+      <c r="I35" s="8" t="n">
+        <v>76.90136200000001</v>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>6.349784696651477</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>4.702813068324363</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>681</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>SILVER, PLATINUM AND OTHER METALS OF THE PLATINUM GROUP</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="n">
+        <v>11.438925</v>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>0.6211224352631604</v>
+      </c>
+      <c r="E36" s="8" t="n">
+        <v>154.621459</v>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>7.437033577591551</v>
+      </c>
+      <c r="G36" s="8" t="n">
+        <v>139.642669</v>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>5.656771309462951</v>
+      </c>
+      <c r="I36" s="8" t="n">
+        <v>76.349017</v>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>6.304177288186176</v>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>-3.699319395794565</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>PETROLEUM OILS AND OILS OBTAINED FROM BITUMINOUS MINERALS; PREPARATIONS, N.E.S., CONTAINING BY WEIGHT 70% OR MORE OF PETROLEUM OILS OR OF OILS FROM BITUMINOUS MINERALS</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="n">
+        <v>123.134296</v>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>6.686071793978439</v>
+      </c>
+      <c r="E37" s="8" t="n">
+        <v>144.139536</v>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>6.932870612031064</v>
+      </c>
+      <c r="G37" s="8" t="n">
+        <v>209.452627</v>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>8.484696114661379</v>
+      </c>
+      <c r="I37" s="8" t="n">
+        <v>74.606162</v>
+      </c>
+      <c r="J37" s="9" t="n">
+        <v>6.16026886160353</v>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>-40.20224303539507</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>687</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>TIN</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" s="8" t="n">
+        <v>33.103897</v>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>1.341002546872093</v>
+      </c>
+      <c r="I38" s="8" t="n">
+        <v>35.32781</v>
+      </c>
+      <c r="J38" s="9" t="n">
+        <v>2.917035296516738</v>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>682</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>COPPER</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="n">
+        <v>70.74475099999999</v>
+      </c>
+      <c r="D39" s="9" t="n">
+        <v>3.84137076020744</v>
+      </c>
+      <c r="E39" s="8" t="n">
+        <v>93.46579199999999</v>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>4.495548276130209</v>
+      </c>
+      <c r="G39" s="8" t="n">
+        <v>78.542176</v>
+      </c>
+      <c r="H39" s="9" t="n">
+        <v>3.181657375652062</v>
+      </c>
+      <c r="I39" s="8" t="n">
+        <v>34.167578</v>
+      </c>
+      <c r="J39" s="9" t="n">
+        <v>2.821234348307715</v>
+      </c>
+      <c r="K39" s="9" t="n">
+        <v>-21.80774183859942</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>048</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>CEREAL PREPARATIONS AND PREPARATIONS OF FLOUR OR STARCH OF FRUITS OR VEGETABLES</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="n">
+        <v>36.935611</v>
+      </c>
+      <c r="D40" s="9" t="n">
+        <v>2.005567538230452</v>
+      </c>
+      <c r="E40" s="8" t="n">
+        <v>40.266638</v>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>1.936757942910912</v>
+      </c>
+      <c r="G40" s="8" t="n">
+        <v>42.232893</v>
+      </c>
+      <c r="H40" s="9" t="n">
+        <v>1.710808158772865</v>
+      </c>
+      <c r="I40" s="8" t="n">
+        <v>27.907225</v>
+      </c>
+      <c r="J40" s="9" t="n">
+        <v>2.304313806964947</v>
+      </c>
+      <c r="K40" s="9" t="n">
+        <v>61.78201801019867</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="n">
+        <v>576.954667</v>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>31.32807390585092</v>
+      </c>
+      <c r="E41" s="8" t="n">
+        <v>702.284699</v>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>33.77871946927998</v>
+      </c>
+      <c r="G41" s="8" t="n">
+        <v>462.693395</v>
+      </c>
+      <c r="H41" s="9" t="n">
+        <v>18.7432017782044</v>
+      </c>
+      <c r="I41" s="8" t="n">
+        <v>209.633414</v>
+      </c>
+      <c r="J41" s="9" t="n">
+        <v>17.30953795231876</v>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>-34.87789021990878</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1738,433 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>24705.948259</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>33.99551464637398</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>25519.793376</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>29.23490919801442</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>26056.928892</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>31.13019709193093</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>18298.040333</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>37.70636742339477</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>25.18214579834115</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>7122.942576</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>9.801206419165796</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>7655.827824</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>8.770346529559312</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>7619.460412</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>9.102964717862395</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>5349.17696</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>11.02293077268833</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>34.5092201531449</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>3191.807752</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>4.391944241281997</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>4677.42923</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>5.358359168683126</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>5263.327921</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>6.28809466454421</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>3920.313907</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>8.078504249758133</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>24.65910300080727</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>2430.91555</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>3.344952572464758</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>2685.377038</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>3.076308366281457</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>3007.548424</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>3.593116272094183</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>1989.954433</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>4.100655132516544</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>19.38470864268307</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>2257.710622</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>3.106621681259108</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>2547.466182</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>2.918320748859282</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>2865.530065</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>3.423447025013421</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>1676.166754</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>3.454039795464853</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>4.58332536271584</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>1883.956378</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>2.592333877251511</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>1892.668927</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>2.168199538589727</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>2040.693071</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>2.438014770185442</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>1335.615754</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>2.752273874157627</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>16.12302676061841</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>1610.802312</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>2.216472446875656</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>1662.205092</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>1.904185281484201</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>2079.253057</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>2.484082361996335</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>1235.094676</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>2.545132309712169</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>6.765540518179192</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>MUSICAL INSTRUMENTS AND PARTS AND ACCESSORIES THEREOF; RECORDS, TAPES AND OTHER SOUND OR SIMILAR RECORDINGS (EXCLUDING GOODS OF GROUPS 763 AND 883)</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>1669.204034</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>2.296833523277619</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>2465.835385</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>2.824806318593522</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>1956.620121</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>2.337572867977865</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>1139.063542</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>2.347243073663273</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>2.938255769158404</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>1492.98657</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>2.054357366703601</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>1455.175412</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>1.667016672517875</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>2396.308568</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>2.862868388063404</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>1081.61296</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>2.228855928692721</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>-10.61288233753371</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>012</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>OTHER MEAT AND EDIBLE MEAT OFFAL, FRESH, CHILLED OR FROZEN (EXCEPT MEAT AND MEAT OFFAL UNFIT FOR HUMAN CONSUMPTION)</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>7075.72561</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>9.736235625801264</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>17093.162084</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>19.58154731388382</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>10129.847135</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>12.10212220828905</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>925.129323</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>1.906393555395299</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>-90.42878864473029</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>19232.14137</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>26.4635275995447</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>19637.252503</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>22.49600086353326</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>20287.546645</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>24.23751963204276</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>11577.551166</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>23.85760388455629</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>1.087717297098534</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2196,433 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>207971.581201</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>71.20568839358469</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>237744.855291</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>72.11417057030857</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>237435.446463</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>70.15480244252186</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>128271.057129</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>71.2846667796702</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>-10.32714047781282</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>8007.166764</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>2.741508326379501</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>10695.911711</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>3.244346972673331</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>11231.0566</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>3.318428519124094</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>6860.27984</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>3.812494987999338</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>11.47255526307003</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>13670.843277</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>4.680648196441725</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>13731.108906</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>4.16500087269923</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>13269.498506</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>3.920724812016792</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>6670.751629</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>3.707167600287121</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>-8.403219431968456</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>5236.367007</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>1.792836863871942</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>5838.35288</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>1.770923601785761</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>6938.525964</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>2.05011899233244</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>3451.056573</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>1.91787160213929</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>-6.397233642740307</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>MUSICAL INSTRUMENTS AND PARTS AND ACCESSORIES THEREOF; RECORDS, TAPES AND OTHER SOUND OR SIMILAR RECORDINGS (EXCLUDING GOODS OF GROUPS 763 AND 883)</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>7179.260992</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>2.45804844171715</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>6762.057909</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>2.051107254704031</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>8164.310951</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>2.412300397346012</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>3365.056615</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>1.870078448435642</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>-23.97335711934484</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>5361.298052</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>1.835610982381707</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>4567.034101</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>1.385299697681398</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>7596.790948</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>2.244615857039396</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>2907.440021</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>1.615765065929321</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>-28.16710246408418</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>1617.14152</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>0.5536798561441828</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>2499.160899</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>0.7580602117868596</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>3280.076195</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>0.9691606745520313</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>2731.113922</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>1.517774548870329</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>69.09468510630174</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>572</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>POLYMERS OF STYRENE, IN PRIMARY FORMS</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>3853.417485</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>1.319340090135265</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>5388.096774</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>1.634349266292092</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>5560.81996</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>1.643049643697682</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>2614.201208</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>1.452802106556897</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>-22.38505620625979</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>PETROLEUM OILS AND OILS OBTAINED FROM BITUMINOUS MINERALS; PREPARATIONS, N.E.S., CONTAINING BY WEIGHT 70% OR MORE OF PETROLEUM OILS OR OF OILS FROM BITUMINOUS MINERALS</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>1872.676646</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>0.6411704375519656</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>2957.568724</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>0.897107174726821</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>4010.771966</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>1.185058587958484</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>2330.318047</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>1.295038406863576</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>3.439900337495416</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>871</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>OPTICAL INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>2968.885243</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>1.016492331637634</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>4629.18949</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>1.404153036563215</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>3271.81425</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>0.9667195263245854</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>1311.447422</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>0.7288167305139629</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>-40.51739530386613</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>34332.944706</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>11.75497608015423</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>34865.079375</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>10.57548134077868</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>37685.924312</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>11.13502054708663</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>19429.280445</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>10.79752372273432</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-9.947794121137221</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
